--- a/IGB283.xlsx
+++ b/IGB283.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacko\Desktop\IGB283\AssignmentTwo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{87DC0327-898F-4922-B482-6984E0BCA747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7BF9DC9-CB66-4086-88B4-473D362D3F20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5D6CE55F-0E60-421F-BFBB-25B8F4925A6E}"/>
   </bookViews>
@@ -77,9 +77,6 @@
     <t>Create Graphical Objects</t>
   </si>
   <si>
-    <t>Store Movement Information</t>
-  </si>
-  <si>
     <t>Walking with Object Relationships</t>
   </si>
   <si>
@@ -147,6 +144,9 @@
   </si>
   <si>
     <t>Done</t>
+  </si>
+  <si>
+    <t>Head noding</t>
   </si>
 </sst>
 </file>
@@ -558,10 +558,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A3F08F4-38FF-4476-A5F5-B76F7DD03383}">
-  <dimension ref="C5:H32"/>
+  <dimension ref="C5:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P25" sqref="P25"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -570,7 +570,7 @@
     <col min="7" max="7" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:9" ht="30" x14ac:dyDescent="0.25">
       <c r="C5" s="5" t="s">
         <v>1</v>
       </c>
@@ -578,19 +578,19 @@
         <v>2</v>
       </c>
       <c r="E5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" s="5" t="s">
+      <c r="H5" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="H5" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C6" s="6" t="s">
         <v>3</v>
       </c>
@@ -609,10 +609,14 @@
       </c>
       <c r="H6">
         <f>SUM(F6:F31)</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="I6">
+        <f>H6/100*40</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C7" s="6" t="s">
         <v>5</v>
       </c>
@@ -627,7 +631,7 @@
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C8" s="6" t="s">
         <v>7</v>
       </c>
@@ -642,7 +646,7 @@
       </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C9" s="6" t="s">
         <v>9</v>
       </c>
@@ -657,7 +661,7 @@
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C10" s="6" t="s">
         <v>10</v>
       </c>
@@ -672,7 +676,7 @@
       </c>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C11" s="6">
         <v>2.1</v>
       </c>
@@ -682,64 +686,82 @@
       <c r="E11" s="6">
         <v>8</v>
       </c>
+      <c r="F11" s="6">
+        <v>8</v>
+      </c>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C12" s="6">
         <v>2.2000000000000002</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E12" s="6">
         <v>8</v>
       </c>
+      <c r="F12">
+        <v>8</v>
+      </c>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C13" s="6">
         <v>2.2999999999999998</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E13" s="6">
         <v>8</v>
       </c>
+      <c r="F13">
+        <v>8</v>
+      </c>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C14" s="6">
         <v>2.4</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E14" s="6">
         <v>4</v>
       </c>
+      <c r="F14">
+        <v>4</v>
+      </c>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C15" s="6">
         <v>2.5</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E15" s="6">
         <v>4</v>
       </c>
+      <c r="F15">
+        <v>4</v>
+      </c>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C16" s="6">
         <v>3.1</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E16" s="6">
+        <v>5</v>
+      </c>
+      <c r="F16">
         <v>5</v>
       </c>
       <c r="G16" s="3"/>
@@ -749,9 +771,12 @@
         <v>3.2</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E17" s="6">
+        <v>5</v>
+      </c>
+      <c r="F17">
         <v>5</v>
       </c>
       <c r="G17" s="1"/>
@@ -761,9 +786,12 @@
         <v>3.3</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E18" s="6">
+        <v>5</v>
+      </c>
+      <c r="F18">
         <v>5</v>
       </c>
       <c r="G18" s="1"/>
@@ -773,9 +801,12 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E19" s="6">
+        <v>4</v>
+      </c>
+      <c r="F19">
         <v>4</v>
       </c>
       <c r="G19" s="1"/>
@@ -785,9 +816,12 @@
         <v>4.2</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E20" s="6">
+        <v>2</v>
+      </c>
+      <c r="F20">
         <v>2</v>
       </c>
       <c r="G20" s="4"/>
@@ -797,9 +831,12 @@
         <v>4.3</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E21" s="6">
+        <v>2</v>
+      </c>
+      <c r="F21">
         <v>2</v>
       </c>
       <c r="G21" s="3"/>
@@ -809,9 +846,12 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E22" s="6">
+        <v>2</v>
+      </c>
+      <c r="F22">
         <v>2</v>
       </c>
       <c r="G22" s="3"/>
@@ -821,9 +861,12 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E23" s="6">
+        <v>4</v>
+      </c>
+      <c r="F23">
         <v>4</v>
       </c>
       <c r="G23" s="1"/>
@@ -833,9 +876,12 @@
         <v>5.2</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E24" s="6">
+        <v>3</v>
+      </c>
+      <c r="F24">
         <v>3</v>
       </c>
       <c r="G24" s="3"/>
@@ -845,9 +891,12 @@
         <v>5.3</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E25" s="6">
+        <v>3</v>
+      </c>
+      <c r="F25">
         <v>3</v>
       </c>
       <c r="G25" s="1"/>
@@ -857,7 +906,7 @@
         <v>6.1</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E26" s="6">
         <v>3</v>
@@ -869,7 +918,7 @@
         <v>6.2</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E27" s="6">
         <v>3</v>
@@ -881,7 +930,7 @@
         <v>6.3</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E28" s="6">
         <v>3</v>
@@ -893,7 +942,7 @@
         <v>6.4</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E29" s="6">
         <v>2</v>
@@ -905,7 +954,7 @@
         <v>6.5</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E30" s="6">
         <v>2</v>
@@ -917,7 +966,7 @@
         <v>6.6</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E31" s="6">
         <v>2</v>
@@ -934,6 +983,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="14036e41-2394-4480-8378-c323f9d13e1b" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005A7941C4B2C0A740B1F6CB385164B660" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0e4cddcf824a992413125c2aee5da56b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="14036e41-2394-4480-8378-c323f9d13e1b" xmlns:ns4="4a48f708-e3c5-4523-829d-52cbd1236895" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="08711e838f940641c2c5b895917e9c5c" ns3:_="" ns4:_="">
     <xsd:import namespace="14036e41-2394-4480-8378-c323f9d13e1b"/>
@@ -1154,7 +1211,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -1163,15 +1220,24 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="14036e41-2394-4480-8378-c323f9d13e1b" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F6ADAD7-52DA-4CBB-860D-C0A64BA9950A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="14036e41-2394-4480-8378-c323f9d13e1b"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="4a48f708-e3c5-4523-829d-52cbd1236895"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0420D685-EAD8-41EB-A15A-FC0651694931}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1190,27 +1256,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB484D4B-C821-41BE-92A1-1C4CDAB5D9D1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F6ADAD7-52DA-4CBB-860D-C0A64BA9950A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="14036e41-2394-4480-8378-c323f9d13e1b"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="4a48f708-e3c5-4523-829d-52cbd1236895"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>